--- a/3 Business Intelligence Fundamentals - Dhaval Sir/27-06-2023.xlsx
+++ b/3 Business Intelligence Fundamentals - Dhaval Sir/27-06-2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sem 5 Class Work\3 Business Intelligence Fundamentals - Dhaval Sir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8421FB-7AB1-45E3-821D-852CF9656E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B15E5BB-4BCA-4B2C-B167-0B6304E5F835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>Roll No</t>
   </si>
@@ -54,66 +54,18 @@
     <t>Grade</t>
   </si>
   <si>
-    <t>RAM</t>
-  </si>
-  <si>
-    <t>ASHOK</t>
-  </si>
-  <si>
-    <t>MANOJ</t>
-  </si>
-  <si>
-    <t>RAJESH</t>
-  </si>
-  <si>
-    <t>RANJANA</t>
-  </si>
-  <si>
-    <t>POOJA</t>
-  </si>
-  <si>
-    <t>MAHESH</t>
-  </si>
-  <si>
-    <t>ASHUTOSH</t>
-  </si>
-  <si>
-    <t>ANIL</t>
-  </si>
-  <si>
-    <t>PREM</t>
-  </si>
-  <si>
     <t>Physics</t>
   </si>
   <si>
     <t>Use of Formulas, Sum, Average, If, Count, Counta, Countif &amp; Sum If</t>
   </si>
   <si>
-    <t>Q.2 Find the total average of marks in each subjects</t>
-  </si>
-  <si>
-    <t>Q.1 Find the total number of marks in each subjects</t>
-  </si>
-  <si>
     <t>Use of CountIf</t>
   </si>
   <si>
     <t>Use of Counta</t>
   </si>
   <si>
-    <t>Q.3 Count how many students are there</t>
-  </si>
-  <si>
-    <t>Q.4 How many student "A" and "B" Grade</t>
-  </si>
-  <si>
-    <t>Q.5 How many students are there in having marks in hindi &amp; english greater then 20 and less then 15</t>
-  </si>
-  <si>
-    <t>Q.6 Student Ashok and Manoj total number and average</t>
-  </si>
-  <si>
     <t>Use of Sumif</t>
   </si>
   <si>
@@ -121,13 +73,88 @@
   </si>
   <si>
     <t>Manoj</t>
+  </si>
+  <si>
+    <t>Q.2 Find the average marks of each subjects</t>
+  </si>
+  <si>
+    <t>Q.1 Find the total marks of each subjects</t>
+  </si>
+  <si>
+    <t>Q.3 Count the total numbers of students</t>
+  </si>
+  <si>
+    <t>Q.4 Count the total numbers of students having grade "A"</t>
+  </si>
+  <si>
+    <t>Q.5 Count the total numbers of students having grade "B"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q.6 Count the total numbers of students having marks greater than 20  in hindi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q.7 Count the total numbers of students having marks less than 15  in english </t>
+  </si>
+  <si>
+    <t>Q.8 Find the total marks of Ashok</t>
+  </si>
+  <si>
+    <t>Q.9 Find the average marks of Ashok</t>
+  </si>
+  <si>
+    <t>Q.10 Find the total marks of Manoj</t>
+  </si>
+  <si>
+    <t>Q.11 Find the average marks of Manoj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use of Sum </t>
+  </si>
+  <si>
+    <t>Use of Average</t>
+  </si>
+  <si>
+    <t>Questions</t>
+  </si>
+  <si>
+    <t>Answer in Table</t>
+  </si>
+  <si>
+    <t>Answers</t>
+  </si>
+  <si>
+    <t>Formulas</t>
+  </si>
+  <si>
+    <t>Ram</t>
+  </si>
+  <si>
+    <t>Rajesh</t>
+  </si>
+  <si>
+    <t>Ranjana</t>
+  </si>
+  <si>
+    <t>Pooja</t>
+  </si>
+  <si>
+    <t>Mahesh</t>
+  </si>
+  <si>
+    <t>Ashutosh</t>
+  </si>
+  <si>
+    <t>Anil</t>
+  </si>
+  <si>
+    <t>Prem</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +165,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -158,7 +201,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -322,11 +365,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -340,58 +396,109 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -674,453 +781,475 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N23"/>
+  <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="15.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="7.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.21875" style="1" customWidth="1"/>
-    <col min="4" max="7" width="8.88671875" style="1"/>
-    <col min="8" max="8" width="9.88671875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="15.77734375" style="1"/>
+    <col min="2" max="2" width="7.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.21875" style="1" customWidth="1"/>
+    <col min="4" max="8" width="15.77734375" style="1"/>
+    <col min="9" max="11" width="18.77734375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="15.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B1" s="22" t="s">
+    <row r="1" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+    </row>
+    <row r="2" spans="1:21" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+    </row>
+    <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B5" s="15">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1">
         <v>20</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-    </row>
-    <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="17" t="s">
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1">
+        <v>18</v>
+      </c>
+      <c r="H5" s="1">
+        <v>15</v>
+      </c>
+      <c r="I5" s="2">
+        <f>SUM(D5:H5)</f>
+        <v>77</v>
+      </c>
+      <c r="J5" s="37">
+        <f>AVERAGE(D5:H5)</f>
+        <v>15.4</v>
+      </c>
+      <c r="K5" s="3" t="str">
+        <f>IF(J5&gt;15,"A","B")</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B6" s="15">
         <v>2</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="C6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1">
+        <v>12</v>
+      </c>
+      <c r="H6" s="1">
+        <v>18</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" ref="I6:I14" si="0">SUM(D6:H6)</f>
+        <v>77</v>
+      </c>
+      <c r="J6" s="38">
+        <f t="shared" ref="J6:J14" si="1">AVERAGE(D6:H6)</f>
+        <v>15.4</v>
+      </c>
+      <c r="K6" s="5" t="str">
+        <f t="shared" ref="K6:K14" si="2">IF(J6&gt;15,"A","B")</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B7" s="15">
         <v>3</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="17" t="s">
+      <c r="C7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1">
+        <v>33</v>
+      </c>
+      <c r="E7" s="1">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1">
         <v>7</v>
       </c>
-      <c r="K3" s="18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="19">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5">
-        <v>20</v>
-      </c>
-      <c r="E4" s="5">
-        <v>10</v>
-      </c>
-      <c r="F4" s="5">
+      <c r="G7" s="1">
         <v>14</v>
       </c>
-      <c r="G4" s="5">
-        <v>18</v>
-      </c>
-      <c r="H4" s="5">
-        <v>15</v>
-      </c>
-      <c r="I4" s="2">
-        <f>SUM(D4:H4)</f>
-        <v>77</v>
-      </c>
-      <c r="J4" s="13">
-        <f>AVERAGE(D4:H4)</f>
-        <v>15.4</v>
-      </c>
-      <c r="K4" s="3" t="str">
-        <f>IF(J4&gt;15,"A","B")</f>
-        <v>A</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="19">
-        <v>2</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="5">
-        <v>21</v>
-      </c>
-      <c r="E5" s="5">
-        <v>12</v>
-      </c>
-      <c r="F5" s="5">
-        <v>14</v>
-      </c>
-      <c r="G5" s="5">
-        <v>12</v>
-      </c>
-      <c r="H5" s="5">
-        <v>18</v>
-      </c>
-      <c r="I5" s="4">
-        <f t="shared" ref="I5:I13" si="0">SUM(D5:H5)</f>
-        <v>77</v>
-      </c>
-      <c r="J5" s="12">
-        <f t="shared" ref="J5:J13" si="1">AVERAGE(D5:H5)</f>
-        <v>15.4</v>
-      </c>
-      <c r="K5" s="6" t="str">
-        <f t="shared" ref="K5:K13" si="2">IF(J5&gt;15,"A","B")</f>
-        <v>A</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="19">
-        <v>3</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="5">
-        <v>33</v>
-      </c>
-      <c r="E6" s="5">
-        <v>15</v>
-      </c>
-      <c r="F6" s="5">
-        <v>7</v>
-      </c>
-      <c r="G6" s="5">
-        <v>14</v>
-      </c>
-      <c r="H6" s="5">
+      <c r="H7" s="1">
         <v>17</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I7" s="4">
         <f t="shared" si="0"/>
         <v>86</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J7" s="38">
         <f t="shared" si="1"/>
         <v>17.2</v>
       </c>
-      <c r="K6" s="6" t="str">
+      <c r="K7" s="5" t="str">
         <f t="shared" si="2"/>
         <v>A</v>
       </c>
-      <c r="L6" s="5"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="19">
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B8" s="15">
         <v>4</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="C8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="1">
         <v>15</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E8" s="1">
         <v>14</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F8" s="1">
         <v>8</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G8" s="1">
         <v>16</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H8" s="1">
         <v>20</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I8" s="4">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J8" s="38">
         <f t="shared" si="1"/>
         <v>14.6</v>
       </c>
-      <c r="K7" s="6" t="str">
+      <c r="K8" s="5" t="str">
         <f t="shared" si="2"/>
         <v>B</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="19">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B9" s="15">
         <v>5</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="1">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1">
+        <v>10</v>
+      </c>
+      <c r="G9" s="1">
         <v>13</v>
       </c>
-      <c r="D8" s="5">
-        <v>14</v>
-      </c>
-      <c r="E8" s="5">
-        <v>17</v>
-      </c>
-      <c r="F8" s="5">
-        <v>10</v>
-      </c>
-      <c r="G8" s="5">
-        <v>13</v>
-      </c>
-      <c r="H8" s="5">
+      <c r="H9" s="1">
         <v>18</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I9" s="4">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J9" s="38">
         <f t="shared" si="1"/>
         <v>14.4</v>
       </c>
-      <c r="K8" s="6" t="str">
+      <c r="K9" s="5" t="str">
         <f t="shared" si="2"/>
         <v>B</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="19">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B10" s="15">
         <v>6</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="5">
+      <c r="C10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="1">
         <v>16</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E10" s="1">
         <v>8</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F10" s="1">
         <v>20</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G10" s="1">
         <v>17</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H10" s="1">
         <v>15</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I10" s="4">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J10" s="38">
         <f t="shared" si="1"/>
         <v>15.2</v>
       </c>
-      <c r="K9" s="6" t="str">
+      <c r="K10" s="5" t="str">
         <f t="shared" si="2"/>
         <v>A</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="19">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B11" s="15">
         <v>7</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="5">
+      <c r="C11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="1">
         <v>18</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E11" s="1">
         <v>19</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F11" s="1">
         <v>3</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G11" s="1">
         <v>10</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H11" s="1">
         <v>14</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I11" s="4">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J11" s="38">
         <f t="shared" si="1"/>
         <v>12.8</v>
       </c>
-      <c r="K10" s="6" t="str">
+      <c r="K11" s="5" t="str">
         <f t="shared" si="2"/>
         <v>B</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="19">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B12" s="15">
         <v>8</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="5">
+      <c r="C12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="1">
         <v>19</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E12" s="1">
         <v>20</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F12" s="1">
         <v>7</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G12" s="1">
         <v>14</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H12" s="1">
         <v>18</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I12" s="4">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J12" s="38">
         <f t="shared" si="1"/>
         <v>15.6</v>
       </c>
-      <c r="K11" s="6" t="str">
+      <c r="K12" s="5" t="str">
         <f t="shared" si="2"/>
         <v>A</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="19">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B13" s="15">
         <v>9</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="5">
+      <c r="C13" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="1">
         <v>22</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E13" s="1">
         <v>13</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F13" s="1">
         <v>8</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G13" s="1">
         <v>12</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H13" s="1">
         <v>19</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I13" s="4">
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J13" s="38">
         <f t="shared" si="1"/>
         <v>14.8</v>
       </c>
-      <c r="K12" s="6" t="str">
+      <c r="K13" s="5" t="str">
         <f t="shared" si="2"/>
         <v>B</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="20">
+    <row r="14" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="16">
         <v>10</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="8">
+      <c r="C14" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="7">
         <v>26</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E14" s="7">
         <v>12</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F14" s="7">
         <v>10</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G14" s="7">
         <v>11</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H14" s="7">
         <v>27</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I14" s="6">
         <f t="shared" si="0"/>
         <v>86</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J14" s="39">
         <f t="shared" si="1"/>
         <v>17.2</v>
       </c>
-      <c r="K13" s="9" t="str">
+      <c r="K14" s="8" t="str">
         <f t="shared" si="2"/>
         <v>A</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B17" s="21" t="s">
-        <v>25</v>
+    <row r="15" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B17" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
@@ -1129,166 +1258,230 @@
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21" t="s">
+      <c r="J17" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17" s="19"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B18" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="19"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B19" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" s="5">
+        <f>COUNTA(C5:C14)</f>
+        <v>10</v>
+      </c>
+      <c r="L19" s="19"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B20" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="5">
+        <f>COUNTIF(K5:K14,"A")</f>
+        <v>6</v>
+      </c>
+      <c r="L20" s="19"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B21" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="5">
+        <f>COUNTIF(K5:K14,"B")</f>
+        <v>4</v>
+      </c>
+      <c r="L21" s="19"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B22" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="5">
+        <f>COUNTIF(D5:D14,"&gt;20")</f>
+        <v>4</v>
+      </c>
+      <c r="L22" s="19"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B23" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="5">
+        <f>COUNTIF(E5:E14,"&lt;15")</f>
+        <v>6</v>
+      </c>
+      <c r="L23" s="19"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="17"/>
+      <c r="B24" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="5">
+        <f>SUMIF(C5:C14,"Ashok",I5:I14)</f>
+        <v>77</v>
+      </c>
+      <c r="L24" s="19"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="17"/>
+      <c r="B25" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="L17" s="21"/>
-      <c r="M17" s="1">
-        <f>COUNTA(C4:C13)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B18" s="21" t="s">
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" s="5">
+        <f>SUMIF(C5:C14,"Ashok",J5:J14)</f>
+        <v>15.4</v>
+      </c>
+      <c r="L25" s="19"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B26" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" s="5">
+        <f>SUMIF(C5:C14,"Manoj",I5:I14)</f>
+        <v>86</v>
+      </c>
+      <c r="L26" s="19"/>
+    </row>
+    <row r="27" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="L18" s="21"/>
-      <c r="M18" s="1">
-        <f>COUNTIF(K4:K13,"A")</f>
-        <v>6</v>
-      </c>
-      <c r="N18" s="1">
-        <f>COUNTIF(K4:K13,"B")</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="L19" s="21"/>
-      <c r="M19" s="1">
-        <f>COUNTIF(D4:D13,"&gt;20")</f>
-        <v>4</v>
-      </c>
-      <c r="N19" s="1">
-        <f>COUNTIF(E4:E13,"&lt;15")</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B20" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="L20" s="21"/>
-      <c r="M20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="21"/>
-      <c r="M21" s="1">
-        <f>SUMIF(C4:C13,"ASHOK",I4:I13)</f>
-        <v>77</v>
-      </c>
-      <c r="N21" s="1">
-        <f>SUMIF(C4:C13,"ASHOK",J4:J13)</f>
-        <v>15.4</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="L22" s="21"/>
-      <c r="M22" s="1">
-        <f>SUMIF(C4:C13,"MANOJ",I4:I13)</f>
-        <v>86</v>
-      </c>
-      <c r="N22" s="1">
-        <f>SUMIF(C4:C13,"MANOJ",J4:J13)</f>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="8">
+        <f>SUMIF(C5:C14,"Manoj",J5:J14)</f>
         <v>17.2</v>
       </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
+      <c r="L27" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B15:J15"/>
+  <mergeCells count="13">
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="A1:L2"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="B23:I23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3 Business Intelligence Fundamentals - Dhaval Sir/27-06-2023.xlsx
+++ b/3 Business Intelligence Fundamentals - Dhaval Sir/27-06-2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sem 5 Class Work\3 Business Intelligence Fundamentals - Dhaval Sir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B15E5BB-4BCA-4B2C-B167-0B6304E5F835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89824C22-C77D-4D5C-8ADA-DC2AF1F1AB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -180,7 +180,7 @@
     </font>
     <font>
       <b/>
-      <sz val="20"/>
+      <sz val="25"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -441,39 +441,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -490,15 +499,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -784,7 +784,7 @@
   <dimension ref="A1:U27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B17" sqref="B17:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -798,20 +798,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="33"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="36"/>
       <c r="M1" s="18"/>
       <c r="N1" s="18"/>
       <c r="O1" s="18"/>
@@ -822,19 +822,19 @@
       <c r="T1" s="18"/>
       <c r="U1" s="18"/>
     </row>
-    <row r="2" spans="1:21" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="36"/>
+    <row r="2" spans="1:21" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="39"/>
       <c r="M2" s="18"/>
       <c r="N2" s="18"/>
       <c r="O2" s="18"/>
@@ -904,7 +904,7 @@
         <f>SUM(D5:H5)</f>
         <v>77</v>
       </c>
-      <c r="J5" s="37">
+      <c r="J5" s="21">
         <f>AVERAGE(D5:H5)</f>
         <v>15.4</v>
       </c>
@@ -939,7 +939,7 @@
         <f t="shared" ref="I6:I14" si="0">SUM(D6:H6)</f>
         <v>77</v>
       </c>
-      <c r="J6" s="38">
+      <c r="J6" s="22">
         <f t="shared" ref="J6:J14" si="1">AVERAGE(D6:H6)</f>
         <v>15.4</v>
       </c>
@@ -974,7 +974,7 @@
         <f t="shared" si="0"/>
         <v>86</v>
       </c>
-      <c r="J7" s="38">
+      <c r="J7" s="22">
         <f t="shared" si="1"/>
         <v>17.2</v>
       </c>
@@ -1009,7 +1009,7 @@
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="22">
         <f t="shared" si="1"/>
         <v>14.6</v>
       </c>
@@ -1044,7 +1044,7 @@
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="J9" s="38">
+      <c r="J9" s="22">
         <f t="shared" si="1"/>
         <v>14.4</v>
       </c>
@@ -1079,7 +1079,7 @@
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="J10" s="38">
+      <c r="J10" s="22">
         <f t="shared" si="1"/>
         <v>15.2</v>
       </c>
@@ -1114,7 +1114,7 @@
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="J11" s="38">
+      <c r="J11" s="22">
         <f t="shared" si="1"/>
         <v>12.8</v>
       </c>
@@ -1149,7 +1149,7 @@
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="J12" s="38">
+      <c r="J12" s="22">
         <f t="shared" si="1"/>
         <v>15.6</v>
       </c>
@@ -1184,7 +1184,7 @@
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
-      <c r="J13" s="38">
+      <c r="J13" s="22">
         <f t="shared" si="1"/>
         <v>14.8</v>
       </c>
@@ -1219,7 +1219,7 @@
         <f t="shared" si="0"/>
         <v>86</v>
       </c>
-      <c r="J14" s="39">
+      <c r="J14" s="23">
         <f t="shared" si="1"/>
         <v>17.2</v>
       </c>
@@ -1230,16 +1230,16 @@
     </row>
     <row r="15" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
       <c r="J16" s="12" t="s">
         <v>32</v>
       </c>
@@ -1248,17 +1248,17 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="28" t="s">
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="20" t="s">
         <v>27</v>
       </c>
       <c r="K17" s="3" t="s">
@@ -1267,16 +1267,16 @@
       <c r="L17" s="19"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
       <c r="J18" s="9" t="s">
         <v>28</v>
       </c>
@@ -1306,16 +1306,16 @@
       <c r="L19" s="19"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
       <c r="J20" s="9" t="s">
         <v>11</v>
       </c>
@@ -1326,16 +1326,16 @@
       <c r="L20" s="19"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
       <c r="J21" s="9" t="s">
         <v>11</v>
       </c>
@@ -1346,16 +1346,16 @@
       <c r="L21" s="19"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
       <c r="J22" s="9" t="s">
         <v>11</v>
       </c>
@@ -1366,16 +1366,16 @@
       <c r="L22" s="19"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
       <c r="J23" s="9" t="s">
         <v>11</v>
       </c>
@@ -1387,16 +1387,16 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
       <c r="J24" s="9" t="s">
         <v>13</v>
       </c>
@@ -1408,16 +1408,16 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
       <c r="J25" s="9" t="s">
         <v>13</v>
       </c>
@@ -1428,16 +1428,16 @@
       <c r="L25" s="19"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
       <c r="J26" s="9" t="s">
         <v>13</v>
       </c>
@@ -1448,16 +1448,16 @@
       <c r="L26" s="19"/>
     </row>
     <row r="27" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
       <c r="J27" s="10" t="s">
         <v>13</v>
       </c>
@@ -1469,11 +1469,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="B26:I26"/>
     <mergeCell ref="B27:I27"/>
     <mergeCell ref="A1:L2"/>
     <mergeCell ref="B17:I17"/>
@@ -1482,7 +1477,13 @@
     <mergeCell ref="B21:I21"/>
     <mergeCell ref="B22:I22"/>
     <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B26:I26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>